--- a/DynamicData.xlsx
+++ b/DynamicData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TESTPROJECT1673703397502</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>TESTPROJECT1673706385957</t>
+  </si>
+  <si>
+    <t>TESTPROJECT1673707077140</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DynamicData.xlsx
+++ b/DynamicData.xlsx
@@ -15,36 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>TESTPROJECT1673703397502</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673703481206</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673703550037</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673704612216</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673704647212</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673704725531</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673705823355</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673705995599</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673706385957</t>
-  </si>
-  <si>
-    <t>TESTPROJECT1673707077140</t>
+    <t>DynamicProjectID</t>
   </si>
 </sst>
 </file>
@@ -52,10 +25,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -67,30 +40,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +50,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,7 +67,37 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,14 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -163,7 +142,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -177,13 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -192,6 +164,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -199,16 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,181 +203,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +394,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,30 +417,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +441,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,81 +499,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,7 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,46 +591,46 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,17 +1028,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.5454545454545" collapsed="true"/>
+    <col min="1" max="1" width="28.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
